--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC6\Desktop\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC6\Desktop\github\Data-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB33406-A842-4B24-9830-06C83B3735D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8E99D7-5662-4D36-8193-7DCDBBC567ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93913589-A05A-459E-8889-858889B7BD49}"/>
   </bookViews>
@@ -275,9 +275,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -285,6 +282,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -600,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C44C28F-D4D4-4967-A55C-AE3C24D91A71}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -633,14 +633,15 @@
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -656,21 +657,21 @@
       </c>
       <c r="E2" s="1">
         <f ca="1">RANDBETWEEN(20,30)</f>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">RANDBETWEEN(30000,50000)</f>
-        <v>36579</v>
-      </c>
-      <c r="G2" s="7">
+        <v>44399</v>
+      </c>
+      <c r="G2" s="6">
         <f ca="1">RANDBETWEEN(7000000000,9999999999)</f>
-        <v>7150379622</v>
-      </c>
-      <c r="H2" s="10" t="s">
+        <v>8409231038</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -686,21 +687,21 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E10" ca="1" si="1">RANDBETWEEN(20,30)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F10" ca="1" si="2">RANDBETWEEN(30000,50000)</f>
-        <v>47796</v>
-      </c>
-      <c r="G3" s="7">
+        <v>32874</v>
+      </c>
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G10" ca="1" si="3">RANDBETWEEN(7000000000,9999999999)</f>
-        <v>8272755808</v>
-      </c>
-      <c r="H3" s="10" t="s">
+        <v>8183223052</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -716,21 +717,21 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>39997</v>
-      </c>
-      <c r="G4" s="7">
+        <v>42504</v>
+      </c>
+      <c r="G4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>7844607583</v>
-      </c>
-      <c r="H4" s="10" t="s">
+        <v>7914825792</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -750,17 +751,17 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>30043</v>
-      </c>
-      <c r="G5" s="7">
+        <v>38777</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>8513415077</v>
-      </c>
-      <c r="H5" s="10" t="s">
+        <v>8606992242</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -780,17 +781,17 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>49530</v>
-      </c>
-      <c r="G6" s="7">
+        <v>43404</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>7556484986</v>
-      </c>
-      <c r="H6" s="10" t="s">
+        <v>7060933602</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -806,21 +807,21 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>38032</v>
-      </c>
-      <c r="G7" s="7">
+        <v>49032</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>7856666403</v>
-      </c>
-      <c r="H7" s="10" t="s">
+        <v>9324576139</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -836,21 +837,21 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44492</v>
-      </c>
-      <c r="G8" s="7">
+        <v>39572</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>7353486849</v>
-      </c>
-      <c r="H8" s="10" t="s">
+        <v>9270420460</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -866,21 +867,21 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>37712</v>
-      </c>
-      <c r="G9" s="7">
+        <v>35790</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>9626023411</v>
-      </c>
-      <c r="H9" s="10" t="s">
+        <v>7312638765</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -900,32 +901,32 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>36088</v>
-      </c>
-      <c r="G10" s="7">
+        <v>32246</v>
+      </c>
+      <c r="G10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>8284121146</v>
-      </c>
-      <c r="H10" s="10" t="s">
+        <v>9087083058</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5">
+      <c r="B11" s="10"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
         <f ca="1">SUM(E2:E10)</f>
         <v>230</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f ca="1">SUM(F2:F10)</f>
-        <v>360269</v>
-      </c>
-      <c r="G11" s="9"/>
+        <v>358598</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
